--- a/src/main/resources/Data.xlsx
+++ b/src/main/resources/Data.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24" count="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38" count="38">
   <si>
     <t>اسم المالك</t>
   </si>
@@ -85,6 +85,48 @@
   </si>
   <si>
     <t>لا يوجد</t>
+  </si>
+  <si>
+    <t>العائدية</t>
+  </si>
+  <si>
+    <t>المنطقة العقارية</t>
+  </si>
+  <si>
+    <t>دمر</t>
+  </si>
+  <si>
+    <t xml:space="preserve">طلياني </t>
+  </si>
+  <si>
+    <t>شعلان</t>
+  </si>
+  <si>
+    <t>ما بعرف</t>
+  </si>
+  <si>
+    <t>ما بعرف</t>
+  </si>
+  <si>
+    <t>بابا عمرو</t>
+  </si>
+  <si>
+    <t>القبو</t>
+  </si>
+  <si>
+    <t>منطقة 3</t>
+  </si>
+  <si>
+    <t>منطقة 4</t>
+  </si>
+  <si>
+    <t>منطقة 5</t>
+  </si>
+  <si>
+    <t>منطقة 2</t>
+  </si>
+  <si>
+    <t>منطقة 1</t>
   </si>
 </sst>
 </file>
@@ -421,15 +463,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="54">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" defaultColWidth="10"/>
   <sheetData>
-    <row r="1" spans="8:8">
+    <row r="1" spans="8:8" ht="15.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -447,6 +489,12 @@
       </c>
       <c r="F1" t="s">
         <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="8:8" ht="15.35">
@@ -468,6 +516,12 @@
       <c r="F2">
         <v>100.0</v>
       </c>
+      <c r="G2">
+        <v>10.0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="3" spans="8:8" ht="15.35">
       <c r="A3">
@@ -488,6 +542,12 @@
       <c r="F3">
         <v>200.0</v>
       </c>
+      <c r="G3">
+        <v>20.0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="4" spans="8:8" ht="15.35">
       <c r="A4">
@@ -508,6 +568,12 @@
       <c r="F4">
         <v>300.0</v>
       </c>
+      <c r="G4">
+        <v>30.0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="5" spans="8:8" ht="15.35">
       <c r="A5">
@@ -528,6 +594,12 @@
       <c r="F5">
         <v>400.0</v>
       </c>
+      <c r="G5">
+        <v>40.0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="6" spans="8:8" ht="15.35">
       <c r="A6">
@@ -547,6 +619,12 @@
       </c>
       <c r="F6">
         <v>500.0</v>
+      </c>
+      <c r="G6">
+        <v>50.0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
